--- a/model/Auswertung/mehrspaltiges Layout/Ergebnis_Qwen7b/results.xlsx
+++ b/model/Auswertung/mehrspaltiges Layout/Ergebnis_Qwen7b/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V8"/>
+  <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -757,279 +757,349 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1876</v>
+        <v>740</v>
       </c>
       <c r="B5" t="n">
-        <v>1767</v>
+        <v>592</v>
       </c>
       <c r="C5" t="n">
-        <v>109</v>
+        <v>148</v>
       </c>
       <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.2014</v>
+      </c>
+      <c r="F5" t="n">
+        <v>97</v>
+      </c>
+      <c r="G5" t="n">
+        <v>82</v>
+      </c>
+      <c r="H5" t="n">
+        <v>15</v>
+      </c>
+      <c r="I5" t="n">
+        <v>11</v>
+      </c>
+      <c r="J5" t="n">
         <v>5</v>
       </c>
-      <c r="E5" t="n">
-        <v>0.0608</v>
-      </c>
-      <c r="F5" t="n">
-        <v>305</v>
-      </c>
-      <c r="G5" t="n">
-        <v>281</v>
-      </c>
-      <c r="H5" t="n">
-        <v>24</v>
-      </c>
-      <c r="I5" t="n">
-        <v>38</v>
-      </c>
-      <c r="J5" t="n">
-        <v>19</v>
-      </c>
       <c r="K5" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2033</v>
+        <v>0.268</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0852</v>
+        <v>0.1649</v>
       </c>
       <c r="N5" t="n">
-        <v>0.8809</v>
+        <v>0.8817</v>
       </c>
       <c r="O5" t="n">
-        <v>0.9305</v>
+        <v>0.9318</v>
       </c>
       <c r="P5" t="n">
-        <v>0.9213</v>
+        <v>0.8454</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.9825</v>
+        <v>0.8913</v>
       </c>
       <c r="R5" t="n">
-        <v>0.9006</v>
+        <v>0.8632</v>
       </c>
       <c r="S5" t="n">
-        <v>0.9558</v>
+        <v>0.9111</v>
       </c>
       <c r="T5" t="n">
-        <v>0.9341</v>
+        <v>0.7483</v>
       </c>
       <c r="U5" t="n">
-        <v>0.6399</v>
+        <v>0.54</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>869</v>
+        <v>1876</v>
       </c>
       <c r="B6" t="n">
-        <v>760</v>
+        <v>1767</v>
       </c>
       <c r="C6" t="n">
         <v>109</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1266</v>
+        <v>0.0608</v>
       </c>
       <c r="F6" t="n">
-        <v>148</v>
+        <v>305</v>
       </c>
       <c r="G6" t="n">
-        <v>133</v>
+        <v>281</v>
       </c>
       <c r="H6" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="I6" t="n">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="J6" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="K6" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1554</v>
+        <v>0.2033</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0743</v>
+        <v>0.0852</v>
       </c>
       <c r="N6" t="n">
-        <v>0.9433</v>
+        <v>0.8809</v>
       </c>
       <c r="O6" t="n">
-        <v>0.9852</v>
+        <v>0.9305</v>
       </c>
       <c r="P6" t="n">
-        <v>0.8986</v>
+        <v>0.9213</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.9366</v>
+        <v>0.9825</v>
       </c>
       <c r="R6" t="n">
-        <v>0.9204</v>
+        <v>0.9006</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9603</v>
+        <v>0.9558</v>
       </c>
       <c r="T6" t="n">
-        <v>0.8249</v>
+        <v>0.9341</v>
       </c>
       <c r="U6" t="n">
-        <v>0.5899</v>
+        <v>0.6399</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1637</v>
+        <v>869</v>
       </c>
       <c r="B7" t="n">
-        <v>1569</v>
+        <v>760</v>
       </c>
       <c r="C7" t="n">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="D7" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0489</v>
+        <v>0.1266</v>
       </c>
       <c r="F7" t="n">
-        <v>259</v>
+        <v>148</v>
       </c>
       <c r="G7" t="n">
-        <v>229</v>
+        <v>133</v>
       </c>
       <c r="H7" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I7" t="n">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="J7" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="K7" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2819</v>
+        <v>0.1554</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1081</v>
+        <v>0.0743</v>
       </c>
       <c r="N7" t="n">
-        <v>0.8419</v>
+        <v>0.9433</v>
       </c>
       <c r="O7" t="n">
-        <v>0.9197</v>
+        <v>0.9852</v>
       </c>
       <c r="P7" t="n">
-        <v>0.8842</v>
+        <v>0.8986</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.9661999999999999</v>
+        <v>0.9366</v>
       </c>
       <c r="R7" t="n">
-        <v>0.8625</v>
+        <v>0.9204</v>
       </c>
       <c r="S7" t="n">
-        <v>0.9424</v>
+        <v>0.9603</v>
       </c>
       <c r="T7" t="n">
-        <v>0.893</v>
+        <v>0.8249</v>
       </c>
       <c r="U7" t="n">
-        <v>0.6725</v>
+        <v>0.5899</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
+        <v>1637</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1569</v>
+      </c>
+      <c r="C8" t="n">
+        <v>68</v>
+      </c>
+      <c r="D8" t="n">
+        <v>12</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0489</v>
+      </c>
+      <c r="F8" t="n">
+        <v>259</v>
+      </c>
+      <c r="G8" t="n">
+        <v>229</v>
+      </c>
+      <c r="H8" t="n">
+        <v>30</v>
+      </c>
+      <c r="I8" t="n">
+        <v>43</v>
+      </c>
+      <c r="J8" t="n">
+        <v>22</v>
+      </c>
+      <c r="K8" t="n">
+        <v>23</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.2819</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.1081</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.8419</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.9197</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.8842</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.9661999999999999</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.8625</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.9424</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.893</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.6725</v>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
         <v>766</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B9" t="n">
         <v>755</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>11</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>2</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E9" t="n">
         <v>0.017</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F9" t="n">
         <v>129</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G9" t="n">
         <v>126</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H9" t="n">
         <v>3</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I9" t="n">
         <v>6</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J9" t="n">
         <v>1</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K9" t="n">
         <v>1</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L9" t="n">
         <v>0.0698</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M9" t="n">
         <v>0.0543</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N9" t="n">
         <v>0.9545</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O9" t="n">
         <v>0.9618</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P9" t="n">
         <v>0.9767</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q9" t="n">
         <v>0.9844000000000001</v>
       </c>
-      <c r="R8" t="n">
+      <c r="R9" t="n">
         <v>0.9655</v>
       </c>
-      <c r="S8" t="n">
+      <c r="S9" t="n">
         <v>0.973</v>
       </c>
-      <c r="T8" t="n">
+      <c r="T9" t="n">
         <v>0.9408</v>
       </c>
-      <c r="U8" t="n">
+      <c r="U9" t="n">
         <v>0.8824</v>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
